--- a/NRI_STLF_Data/WeatherData/T_tabriz/T_tabriz94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_tabriz/T_tabriz94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_tabriz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="12">
   <si>
     <t>Rain</t>
   </si>
@@ -57,12 +62,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -150,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366:AG388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -485,7 +490,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -568,7 +573,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -648,7 +653,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -725,7 +730,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -805,7 +810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -885,7 +890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -962,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1596,7 +1601,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1747,7 +1752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1824,7 +1829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1907,7 +1912,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1987,7 +1992,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -2070,7 +2075,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2153,7 +2158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2319,7 +2324,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2402,7 +2407,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2479,7 +2484,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2556,7 +2561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2636,7 +2641,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2713,7 +2718,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2790,7 +2795,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2870,7 +2875,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2950,7 +2955,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -3030,7 +3035,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -3110,7 +3115,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3193,7 +3198,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3276,7 +3281,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3427,7 +3432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3510,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3587,7 +3592,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3667,7 +3672,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3747,7 +3752,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3827,7 +3832,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3904,7 +3909,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3984,7 +3989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -4064,7 +4069,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -4147,7 +4152,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4227,7 +4232,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4304,7 +4309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4384,7 +4389,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4467,7 +4472,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4547,7 +4552,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4627,7 +4632,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4707,7 +4712,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4790,7 +4795,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4873,7 +4878,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4950,7 +4955,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -5107,7 +5112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -5184,7 +5189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5264,7 +5269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5347,7 +5352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5427,7 +5432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5510,7 +5515,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5587,7 +5592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5670,7 +5675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5747,7 +5752,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5827,7 +5832,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5907,7 +5912,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5987,7 +5992,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -6150,7 +6155,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -6233,7 +6238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6316,7 +6321,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6470,7 +6475,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6547,7 +6552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6627,7 +6632,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6704,7 +6709,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6781,7 +6786,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6858,7 +6863,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6938,7 +6943,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -7018,7 +7023,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -7092,7 +7097,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -7169,7 +7174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -7249,7 +7254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -7326,7 +7331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7403,7 +7408,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7483,7 +7488,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7563,7 +7568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7640,7 +7645,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7717,7 +7722,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7794,7 +7799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7871,7 +7876,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7951,7 +7956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8031,7 +8036,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -8114,7 +8119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -8191,7 +8196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -8271,7 +8276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -8348,7 +8353,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8422,7 +8427,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8499,7 +8504,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8576,7 +8581,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8659,7 +8664,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8739,7 +8744,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8816,7 +8821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8893,7 +8898,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8970,7 +8975,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -9053,7 +9058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -9133,7 +9138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -9216,7 +9221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -9293,7 +9298,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -9370,7 +9375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9447,7 +9452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9524,7 +9529,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9604,7 +9609,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9681,7 +9686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9761,7 +9766,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9844,7 +9849,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9927,7 +9932,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -10004,7 +10009,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -10081,7 +10086,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -10155,7 +10160,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -10232,7 +10237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -10309,7 +10314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -10386,7 +10391,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10463,7 +10468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10540,7 +10545,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10617,7 +10622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10694,7 +10699,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10771,7 +10776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10848,7 +10853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10925,7 +10930,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -11002,7 +11007,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -11085,7 +11090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -11165,7 +11170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -11242,7 +11247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -11319,7 +11324,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -11399,7 +11404,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -11482,7 +11487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11562,7 +11567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11642,7 +11647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11719,7 +11724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11796,7 +11801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11873,7 +11878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11953,7 +11958,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -12030,7 +12035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -12107,7 +12112,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -12184,7 +12189,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -12261,7 +12266,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -12338,7 +12343,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -12415,7 +12420,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -12492,7 +12497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12572,7 +12577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12652,7 +12657,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12732,7 +12737,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12812,7 +12817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12895,7 +12900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12972,7 +12977,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -13049,7 +13054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -13126,7 +13131,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -13209,7 +13214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -13289,7 +13294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -13372,7 +13377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -13452,7 +13457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -13529,7 +13534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13606,7 +13611,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13683,7 +13688,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13760,7 +13765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13843,7 +13848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13923,7 +13928,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -14000,7 +14005,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -14077,7 +14082,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -14154,7 +14159,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -14231,7 +14236,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -14311,7 +14316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -14391,7 +14396,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -14471,7 +14476,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -14548,7 +14553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14628,7 +14633,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14711,7 +14716,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14791,7 +14796,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14868,7 +14873,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14942,7 +14947,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -15016,7 +15021,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -15093,7 +15098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -15170,7 +15175,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -15247,7 +15252,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -15324,7 +15329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -15404,7 +15409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -15484,7 +15489,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -15561,7 +15566,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15638,7 +15643,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15718,7 +15723,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15801,7 +15806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15881,7 +15886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15964,7 +15969,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -16041,7 +16046,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -16118,7 +16123,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -16201,7 +16206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -16284,7 +16289,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -16361,7 +16366,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -16441,7 +16446,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -16521,7 +16526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -16601,7 +16606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -16675,7 +16680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16752,7 +16757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16832,7 +16837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16909,7 +16914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16986,7 +16991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -17066,7 +17071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -17143,7 +17148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -17220,7 +17225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -17297,7 +17302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -17374,7 +17379,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -17451,7 +17456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -17528,7 +17533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -17605,7 +17610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -17682,7 +17687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17762,7 +17767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17845,7 +17850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17925,7 +17930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -18005,7 +18010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -18088,7 +18093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -18168,7 +18173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -18248,7 +18253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -18325,7 +18330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -18402,7 +18407,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -18476,7 +18481,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -18553,7 +18558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -18630,7 +18635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -18707,7 +18712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18784,7 +18789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18864,7 +18869,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18944,7 +18949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -19024,7 +19029,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -19104,7 +19109,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -19181,7 +19186,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -19264,7 +19269,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -19338,7 +19343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -19418,7 +19423,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -19498,7 +19503,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -19578,7 +19583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -19658,7 +19663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -19738,7 +19743,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19815,7 +19820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19892,7 +19897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19969,7 +19974,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -20043,7 +20048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -20120,7 +20125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -20197,7 +20202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -20274,7 +20279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -20351,7 +20356,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -20428,7 +20433,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -20505,7 +20510,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -20585,7 +20590,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -20668,7 +20673,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -20751,7 +20756,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20831,7 +20836,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20911,7 +20916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20994,7 +20999,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -21071,7 +21076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -21148,7 +21153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -21222,7 +21227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -21296,7 +21301,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -21370,7 +21375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -21447,7 +21452,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -21527,7 +21532,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -21607,7 +21612,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -21687,7 +21692,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -21767,7 +21772,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21844,7 +21849,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21921,7 +21926,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21998,7 +22003,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -22078,7 +22083,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -22155,7 +22160,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -22232,7 +22237,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -22309,7 +22314,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -22386,7 +22391,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -22466,7 +22471,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -22546,7 +22551,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -22626,7 +22631,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -22706,7 +22711,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -22783,7 +22788,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22863,7 +22868,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22940,7 +22945,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -23023,7 +23028,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -23106,7 +23111,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -23183,7 +23188,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -23260,7 +23265,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -23337,7 +23342,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -23414,7 +23419,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -23494,7 +23499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -23577,7 +23582,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -23657,7 +23662,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -23734,7 +23739,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -23811,7 +23816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23888,7 +23893,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23965,7 +23970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -24042,7 +24047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -24122,7 +24127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -24199,7 +24204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -24276,7 +24281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -24356,7 +24361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -24439,7 +24444,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -24519,7 +24524,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -24596,7 +24601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -24673,7 +24678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -24753,7 +24758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -24836,7 +24841,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24919,7 +24924,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24999,7 +25004,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -25079,7 +25084,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -25156,7 +25161,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -25233,7 +25238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -25310,7 +25315,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -25387,7 +25392,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -25464,7 +25469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -25541,7 +25546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -25621,7 +25626,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -25695,7 +25700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -25772,7 +25777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -25849,7 +25854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25932,7 +25937,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -26012,7 +26017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -26089,7 +26094,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -26166,7 +26171,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -26243,7 +26248,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -26320,7 +26325,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -26397,7 +26402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -26474,7 +26479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -26551,7 +26556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -26628,7 +26633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -26705,7 +26710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -26782,7 +26787,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -26862,7 +26867,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26945,7 +26950,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -27022,7 +27027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -27102,7 +27107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -27185,7 +27190,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -27265,7 +27270,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -27342,7 +27347,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -27419,7 +27424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -27496,7 +27501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -27576,7 +27581,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -27656,7 +27661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -27733,7 +27738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -27807,7 +27812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -27884,7 +27889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -27961,7 +27966,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -28041,7 +28046,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -28121,7 +28126,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -28201,7 +28206,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -28275,7 +28280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -28352,7 +28357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -28429,7 +28434,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -28509,7 +28514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -28589,7 +28594,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -28669,7 +28674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -28752,7 +28757,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -28835,7 +28840,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -28915,7 +28920,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28995,7 +29000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -29072,7 +29077,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -29150,1471 +29155,6 @@
       </c>
       <c r="AA365">
         <v>265</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>12</v>
-      </c>
-      <c r="G366">
-        <v>6</v>
-      </c>
-      <c r="H366">
-        <v>0</v>
-      </c>
-      <c r="I366">
-        <v>3</v>
-      </c>
-      <c r="J366">
-        <v>-1</v>
-      </c>
-      <c r="K366">
-        <v>-5</v>
-      </c>
-      <c r="L366">
-        <v>76</v>
-      </c>
-      <c r="M366">
-        <v>61</v>
-      </c>
-      <c r="N366">
-        <v>28</v>
-      </c>
-      <c r="O366">
-        <v>1019</v>
-      </c>
-      <c r="P366">
-        <v>1012</v>
-      </c>
-      <c r="Q366">
-        <v>1008</v>
-      </c>
-      <c r="R366">
-        <v>19</v>
-      </c>
-      <c r="S366">
-        <v>10</v>
-      </c>
-      <c r="T366">
-        <v>9</v>
-      </c>
-      <c r="U366">
-        <v>40</v>
-      </c>
-      <c r="V366">
-        <v>14</v>
-      </c>
-      <c r="W366">
-        <v>47</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>5</v>
-      </c>
-      <c r="Z366" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA366">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>12</v>
-      </c>
-      <c r="G367">
-        <v>6</v>
-      </c>
-      <c r="H367">
-        <v>0</v>
-      </c>
-      <c r="I367">
-        <v>2</v>
-      </c>
-      <c r="J367">
-        <v>0</v>
-      </c>
-      <c r="K367">
-        <v>-2</v>
-      </c>
-      <c r="L367">
-        <v>87</v>
-      </c>
-      <c r="M367">
-        <v>65</v>
-      </c>
-      <c r="N367">
-        <v>35</v>
-      </c>
-      <c r="O367">
-        <v>1015</v>
-      </c>
-      <c r="P367">
-        <v>1013</v>
-      </c>
-      <c r="Q367">
-        <v>1010</v>
-      </c>
-      <c r="R367">
-        <v>11</v>
-      </c>
-      <c r="S367">
-        <v>10</v>
-      </c>
-      <c r="T367">
-        <v>6</v>
-      </c>
-      <c r="U367">
-        <v>35</v>
-      </c>
-      <c r="V367">
-        <v>18</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>2</v>
-      </c>
-      <c r="AA367">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>10</v>
-      </c>
-      <c r="G368">
-        <v>6</v>
-      </c>
-      <c r="H368">
-        <v>2</v>
-      </c>
-      <c r="I368">
-        <v>0</v>
-      </c>
-      <c r="J368">
-        <v>-1</v>
-      </c>
-      <c r="K368">
-        <v>-3</v>
-      </c>
-      <c r="L368">
-        <v>81</v>
-      </c>
-      <c r="M368">
-        <v>61</v>
-      </c>
-      <c r="N368">
-        <v>27</v>
-      </c>
-      <c r="O368">
-        <v>1016</v>
-      </c>
-      <c r="P368">
-        <v>1013</v>
-      </c>
-      <c r="Q368">
-        <v>1012</v>
-      </c>
-      <c r="R368">
-        <v>14</v>
-      </c>
-      <c r="S368">
-        <v>10</v>
-      </c>
-      <c r="T368">
-        <v>10</v>
-      </c>
-      <c r="U368">
-        <v>29</v>
-      </c>
-      <c r="V368">
-        <v>14</v>
-      </c>
-      <c r="W368">
-        <v>39</v>
-      </c>
-      <c r="X368">
-        <v>0</v>
-      </c>
-      <c r="Y368">
-        <v>2</v>
-      </c>
-      <c r="AA368">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>13</v>
-      </c>
-      <c r="G369">
-        <v>4</v>
-      </c>
-      <c r="H369">
-        <v>-4</v>
-      </c>
-      <c r="I369">
-        <v>0</v>
-      </c>
-      <c r="J369">
-        <v>-3</v>
-      </c>
-      <c r="K369">
-        <v>-5</v>
-      </c>
-      <c r="L369">
-        <v>93</v>
-      </c>
-      <c r="M369">
-        <v>57</v>
-      </c>
-      <c r="N369">
-        <v>19</v>
-      </c>
-      <c r="O369">
-        <v>1020</v>
-      </c>
-      <c r="P369">
-        <v>1017</v>
-      </c>
-      <c r="Q369">
-        <v>1016</v>
-      </c>
-      <c r="R369">
-        <v>14</v>
-      </c>
-      <c r="S369">
-        <v>10</v>
-      </c>
-      <c r="T369">
-        <v>10</v>
-      </c>
-      <c r="U369">
-        <v>35</v>
-      </c>
-      <c r="V369">
-        <v>13</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>3</v>
-      </c>
-      <c r="AA369">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>16</v>
-      </c>
-      <c r="G370">
-        <v>8</v>
-      </c>
-      <c r="H370">
-        <v>1</v>
-      </c>
-      <c r="I370">
-        <v>2</v>
-      </c>
-      <c r="J370">
-        <v>-1</v>
-      </c>
-      <c r="K370">
-        <v>-4</v>
-      </c>
-      <c r="L370">
-        <v>75</v>
-      </c>
-      <c r="M370">
-        <v>57</v>
-      </c>
-      <c r="N370">
-        <v>23</v>
-      </c>
-      <c r="O370">
-        <v>1023</v>
-      </c>
-      <c r="P370">
-        <v>1021</v>
-      </c>
-      <c r="Q370">
-        <v>1019</v>
-      </c>
-      <c r="R370">
-        <v>14</v>
-      </c>
-      <c r="S370">
-        <v>10</v>
-      </c>
-      <c r="T370">
-        <v>10</v>
-      </c>
-      <c r="U370">
-        <v>32</v>
-      </c>
-      <c r="V370">
-        <v>11</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>4</v>
-      </c>
-      <c r="AA370">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>17</v>
-      </c>
-      <c r="G371">
-        <v>10</v>
-      </c>
-      <c r="H371">
-        <v>3</v>
-      </c>
-      <c r="I371">
-        <v>1</v>
-      </c>
-      <c r="J371">
-        <v>-1</v>
-      </c>
-      <c r="K371">
-        <v>-2</v>
-      </c>
-      <c r="L371">
-        <v>75</v>
-      </c>
-      <c r="M371">
-        <v>49</v>
-      </c>
-      <c r="N371">
-        <v>17</v>
-      </c>
-      <c r="O371">
-        <v>1021</v>
-      </c>
-      <c r="P371">
-        <v>1018</v>
-      </c>
-      <c r="Q371">
-        <v>1014</v>
-      </c>
-      <c r="R371">
-        <v>10</v>
-      </c>
-      <c r="S371">
-        <v>10</v>
-      </c>
-      <c r="T371">
-        <v>8</v>
-      </c>
-      <c r="U371">
-        <v>35</v>
-      </c>
-      <c r="V371">
-        <v>8</v>
-      </c>
-      <c r="W371">
-        <v>50</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="Y371">
-        <v>7</v>
-      </c>
-      <c r="AA371">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>15</v>
-      </c>
-      <c r="G372">
-        <v>11</v>
-      </c>
-      <c r="H372">
-        <v>7</v>
-      </c>
-      <c r="I372">
-        <v>3</v>
-      </c>
-      <c r="J372">
-        <v>1</v>
-      </c>
-      <c r="K372">
-        <v>-2</v>
-      </c>
-      <c r="L372">
-        <v>66</v>
-      </c>
-      <c r="M372">
-        <v>47</v>
-      </c>
-      <c r="N372">
-        <v>27</v>
-      </c>
-      <c r="O372">
-        <v>1017</v>
-      </c>
-      <c r="P372">
-        <v>1015</v>
-      </c>
-      <c r="Q372">
-        <v>1010</v>
-      </c>
-      <c r="R372">
-        <v>10</v>
-      </c>
-      <c r="S372">
-        <v>10</v>
-      </c>
-      <c r="T372">
-        <v>10</v>
-      </c>
-      <c r="U372">
-        <v>35</v>
-      </c>
-      <c r="V372">
-        <v>13</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="Y372">
-        <v>7</v>
-      </c>
-      <c r="AA372">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>8</v>
-      </c>
-      <c r="G373">
-        <v>7</v>
-      </c>
-      <c r="H373">
-        <v>5</v>
-      </c>
-      <c r="I373">
-        <v>7</v>
-      </c>
-      <c r="J373">
-        <v>5</v>
-      </c>
-      <c r="K373">
-        <v>3</v>
-      </c>
-      <c r="L373">
-        <v>93</v>
-      </c>
-      <c r="M373">
-        <v>85</v>
-      </c>
-      <c r="N373">
-        <v>58</v>
-      </c>
-      <c r="O373">
-        <v>1046</v>
-      </c>
-      <c r="P373">
-        <v>1012</v>
-      </c>
-      <c r="Q373">
-        <v>1009</v>
-      </c>
-      <c r="R373">
-        <v>10</v>
-      </c>
-      <c r="S373">
-        <v>7</v>
-      </c>
-      <c r="T373">
-        <v>3</v>
-      </c>
-      <c r="U373">
-        <v>19</v>
-      </c>
-      <c r="V373">
-        <v>11</v>
-      </c>
-      <c r="X373">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="Y373">
-        <v>7</v>
-      </c>
-      <c r="Z373" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA373">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>11</v>
-      </c>
-      <c r="G374">
-        <v>7</v>
-      </c>
-      <c r="H374">
-        <v>3</v>
-      </c>
-      <c r="I374">
-        <v>6</v>
-      </c>
-      <c r="J374">
-        <v>3</v>
-      </c>
-      <c r="K374">
-        <v>1</v>
-      </c>
-      <c r="L374">
-        <v>100</v>
-      </c>
-      <c r="M374">
-        <v>79</v>
-      </c>
-      <c r="N374">
-        <v>48</v>
-      </c>
-      <c r="O374">
-        <v>1013</v>
-      </c>
-      <c r="P374">
-        <v>1010</v>
-      </c>
-      <c r="Q374">
-        <v>1006</v>
-      </c>
-      <c r="R374">
-        <v>10</v>
-      </c>
-      <c r="S374">
-        <v>7</v>
-      </c>
-      <c r="T374">
-        <v>3</v>
-      </c>
-      <c r="U374">
-        <v>32</v>
-      </c>
-      <c r="V374">
-        <v>8</v>
-      </c>
-      <c r="X374">
-        <v>3.05</v>
-      </c>
-      <c r="Y374">
-        <v>6</v>
-      </c>
-      <c r="Z374" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA374">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>12</v>
-      </c>
-      <c r="G375">
-        <v>7</v>
-      </c>
-      <c r="H375">
-        <v>2</v>
-      </c>
-      <c r="I375">
-        <v>3</v>
-      </c>
-      <c r="J375">
-        <v>1</v>
-      </c>
-      <c r="K375">
-        <v>-2</v>
-      </c>
-      <c r="L375">
-        <v>93</v>
-      </c>
-      <c r="M375">
-        <v>68</v>
-      </c>
-      <c r="N375">
-        <v>34</v>
-      </c>
-      <c r="O375">
-        <v>1016</v>
-      </c>
-      <c r="P375">
-        <v>1010</v>
-      </c>
-      <c r="Q375">
-        <v>1006</v>
-      </c>
-      <c r="R375">
-        <v>14</v>
-      </c>
-      <c r="S375">
-        <v>10</v>
-      </c>
-      <c r="T375">
-        <v>6</v>
-      </c>
-      <c r="U375">
-        <v>35</v>
-      </c>
-      <c r="V375">
-        <v>14</v>
-      </c>
-      <c r="X375">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="Y375">
-        <v>3</v>
-      </c>
-      <c r="Z375" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA375">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>9</v>
-      </c>
-      <c r="G376">
-        <v>4</v>
-      </c>
-      <c r="H376">
-        <v>0</v>
-      </c>
-      <c r="I376">
-        <v>1</v>
-      </c>
-      <c r="J376">
-        <v>-1</v>
-      </c>
-      <c r="K376">
-        <v>-1</v>
-      </c>
-      <c r="L376">
-        <v>100</v>
-      </c>
-      <c r="M376">
-        <v>69</v>
-      </c>
-      <c r="N376">
-        <v>41</v>
-      </c>
-      <c r="O376">
-        <v>1020</v>
-      </c>
-      <c r="P376">
-        <v>1016</v>
-      </c>
-      <c r="Q376">
-        <v>1013</v>
-      </c>
-      <c r="R376">
-        <v>18</v>
-      </c>
-      <c r="S376">
-        <v>9</v>
-      </c>
-      <c r="T376">
-        <v>0</v>
-      </c>
-      <c r="U376">
-        <v>26</v>
-      </c>
-      <c r="V376">
-        <v>10</v>
-      </c>
-      <c r="X376">
-        <v>5.08</v>
-      </c>
-      <c r="Y376">
-        <v>3</v>
-      </c>
-      <c r="Z376" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA376">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>11</v>
-      </c>
-      <c r="G377">
-        <v>6</v>
-      </c>
-      <c r="H377">
-        <v>2</v>
-      </c>
-      <c r="I377">
-        <v>0</v>
-      </c>
-      <c r="J377">
-        <v>-2</v>
-      </c>
-      <c r="K377">
-        <v>-4</v>
-      </c>
-      <c r="L377">
-        <v>81</v>
-      </c>
-      <c r="M377">
-        <v>56</v>
-      </c>
-      <c r="N377">
-        <v>24</v>
-      </c>
-      <c r="O377">
-        <v>1020</v>
-      </c>
-      <c r="P377">
-        <v>1018</v>
-      </c>
-      <c r="Q377">
-        <v>1016</v>
-      </c>
-      <c r="R377">
-        <v>26</v>
-      </c>
-      <c r="S377">
-        <v>11</v>
-      </c>
-      <c r="T377">
-        <v>10</v>
-      </c>
-      <c r="U377">
-        <v>34</v>
-      </c>
-      <c r="V377">
-        <v>10</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>3</v>
-      </c>
-      <c r="AA377">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>9</v>
-      </c>
-      <c r="G378">
-        <v>6</v>
-      </c>
-      <c r="H378">
-        <v>1</v>
-      </c>
-      <c r="I378">
-        <v>-1</v>
-      </c>
-      <c r="J378">
-        <v>-4</v>
-      </c>
-      <c r="K378">
-        <v>-6</v>
-      </c>
-      <c r="L378">
-        <v>81</v>
-      </c>
-      <c r="M378">
-        <v>54</v>
-      </c>
-      <c r="N378">
-        <v>26</v>
-      </c>
-      <c r="O378">
-        <v>1025</v>
-      </c>
-      <c r="P378">
-        <v>1022</v>
-      </c>
-      <c r="Q378">
-        <v>1020</v>
-      </c>
-      <c r="R378">
-        <v>19</v>
-      </c>
-      <c r="S378">
-        <v>11</v>
-      </c>
-      <c r="T378">
-        <v>10</v>
-      </c>
-      <c r="U378">
-        <v>23</v>
-      </c>
-      <c r="V378">
-        <v>10</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>2</v>
-      </c>
-      <c r="AA378">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>13</v>
-      </c>
-      <c r="G379">
-        <v>7</v>
-      </c>
-      <c r="H379">
-        <v>-1</v>
-      </c>
-      <c r="I379">
-        <v>-2</v>
-      </c>
-      <c r="J379">
-        <v>-4</v>
-      </c>
-      <c r="K379">
-        <v>-6</v>
-      </c>
-      <c r="L379">
-        <v>75</v>
-      </c>
-      <c r="M379">
-        <v>51</v>
-      </c>
-      <c r="N379">
-        <v>19</v>
-      </c>
-      <c r="O379">
-        <v>1025</v>
-      </c>
-      <c r="P379">
-        <v>1021</v>
-      </c>
-      <c r="Q379">
-        <v>1018</v>
-      </c>
-      <c r="R379">
-        <v>26</v>
-      </c>
-      <c r="S379">
-        <v>20</v>
-      </c>
-      <c r="T379">
-        <v>14</v>
-      </c>
-      <c r="U379">
-        <v>26</v>
-      </c>
-      <c r="V379">
-        <v>11</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="AA379">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>16</v>
-      </c>
-      <c r="G380">
-        <v>9</v>
-      </c>
-      <c r="H380">
-        <v>2</v>
-      </c>
-      <c r="I380">
-        <v>7</v>
-      </c>
-      <c r="J380">
-        <v>-1</v>
-      </c>
-      <c r="K380">
-        <v>-4</v>
-      </c>
-      <c r="L380">
-        <v>87</v>
-      </c>
-      <c r="M380">
-        <v>57</v>
-      </c>
-      <c r="N380">
-        <v>16</v>
-      </c>
-      <c r="O380">
-        <v>1018</v>
-      </c>
-      <c r="P380">
-        <v>1016</v>
-      </c>
-      <c r="Q380">
-        <v>1011</v>
-      </c>
-      <c r="R380">
-        <v>14</v>
-      </c>
-      <c r="S380">
-        <v>10</v>
-      </c>
-      <c r="T380">
-        <v>5</v>
-      </c>
-      <c r="U380">
-        <v>39</v>
-      </c>
-      <c r="V380">
-        <v>11</v>
-      </c>
-      <c r="X380">
-        <v>1.02</v>
-      </c>
-      <c r="Y380">
-        <v>6</v>
-      </c>
-      <c r="Z380" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA380">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>6</v>
-      </c>
-      <c r="G381">
-        <v>3</v>
-      </c>
-      <c r="H381">
-        <v>0</v>
-      </c>
-      <c r="I381">
-        <v>3</v>
-      </c>
-      <c r="J381">
-        <v>0</v>
-      </c>
-      <c r="K381">
-        <v>-2</v>
-      </c>
-      <c r="L381">
-        <v>100</v>
-      </c>
-      <c r="M381">
-        <v>82</v>
-      </c>
-      <c r="N381">
-        <v>53</v>
-      </c>
-      <c r="O381">
-        <v>1022</v>
-      </c>
-      <c r="P381">
-        <v>1018</v>
-      </c>
-      <c r="Q381">
-        <v>1016</v>
-      </c>
-      <c r="R381">
-        <v>18</v>
-      </c>
-      <c r="S381">
-        <v>7</v>
-      </c>
-      <c r="T381">
-        <v>1</v>
-      </c>
-      <c r="U381">
-        <v>26</v>
-      </c>
-      <c r="V381">
-        <v>10</v>
-      </c>
-      <c r="X381">
-        <v>12.95</v>
-      </c>
-      <c r="Y381">
-        <v>6</v>
-      </c>
-      <c r="Z381" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA381">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>17</v>
-      </c>
-      <c r="G382">
-        <v>9</v>
-      </c>
-      <c r="H382">
-        <v>1</v>
-      </c>
-      <c r="I382">
-        <v>5</v>
-      </c>
-      <c r="J382">
-        <v>1</v>
-      </c>
-      <c r="K382">
-        <v>-2</v>
-      </c>
-      <c r="L382">
-        <v>87</v>
-      </c>
-      <c r="M382">
-        <v>64</v>
-      </c>
-      <c r="N382">
-        <v>27</v>
-      </c>
-      <c r="O382">
-        <v>1020</v>
-      </c>
-      <c r="P382">
-        <v>1016</v>
-      </c>
-      <c r="Q382">
-        <v>1013</v>
-      </c>
-      <c r="R382">
-        <v>18</v>
-      </c>
-      <c r="S382">
-        <v>11</v>
-      </c>
-      <c r="T382">
-        <v>10</v>
-      </c>
-      <c r="U382">
-        <v>35</v>
-      </c>
-      <c r="V382">
-        <v>13</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>1</v>
-      </c>
-      <c r="AA382">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>19</v>
-      </c>
-      <c r="G383">
-        <v>11</v>
-      </c>
-      <c r="H383">
-        <v>3</v>
-      </c>
-      <c r="I383">
-        <v>4</v>
-      </c>
-      <c r="J383">
-        <v>2</v>
-      </c>
-      <c r="K383">
-        <v>-3</v>
-      </c>
-      <c r="L383">
-        <v>87</v>
-      </c>
-      <c r="M383">
-        <v>56</v>
-      </c>
-      <c r="N383">
-        <v>14</v>
-      </c>
-      <c r="O383">
-        <v>1017</v>
-      </c>
-      <c r="P383">
-        <v>1015</v>
-      </c>
-      <c r="Q383">
-        <v>1012</v>
-      </c>
-      <c r="R383">
-        <v>19</v>
-      </c>
-      <c r="S383">
-        <v>10</v>
-      </c>
-      <c r="T383">
-        <v>8</v>
-      </c>
-      <c r="U383">
-        <v>23</v>
-      </c>
-      <c r="V383">
-        <v>11</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>1</v>
-      </c>
-      <c r="AA383">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>18</v>
-      </c>
-      <c r="G384">
-        <v>12</v>
-      </c>
-      <c r="H384">
-        <v>5</v>
-      </c>
-      <c r="I384">
-        <v>6</v>
-      </c>
-      <c r="J384">
-        <v>3</v>
-      </c>
-      <c r="K384">
-        <v>1</v>
-      </c>
-      <c r="L384">
-        <v>81</v>
-      </c>
-      <c r="M384">
-        <v>55</v>
-      </c>
-      <c r="N384">
-        <v>28</v>
-      </c>
-      <c r="O384">
-        <v>1020</v>
-      </c>
-      <c r="P384">
-        <v>1017</v>
-      </c>
-      <c r="Q384">
-        <v>1013</v>
-      </c>
-      <c r="R384">
-        <v>18</v>
-      </c>
-      <c r="S384">
-        <v>11</v>
-      </c>
-      <c r="T384">
-        <v>9</v>
-      </c>
-      <c r="U384">
-        <v>35</v>
-      </c>
-      <c r="V384">
-        <v>13</v>
-      </c>
-      <c r="W384">
-        <v>39</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>2</v>
-      </c>
-      <c r="Z384" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA384">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>19</v>
-      </c>
-      <c r="G385">
-        <v>12</v>
-      </c>
-      <c r="H385">
-        <v>5</v>
-      </c>
-      <c r="I385">
-        <v>5</v>
-      </c>
-      <c r="J385">
-        <v>3</v>
-      </c>
-      <c r="K385">
-        <v>1</v>
-      </c>
-      <c r="L385">
-        <v>87</v>
-      </c>
-      <c r="M385">
-        <v>53</v>
-      </c>
-      <c r="N385">
-        <v>24</v>
-      </c>
-      <c r="O385">
-        <v>1022</v>
-      </c>
-      <c r="P385">
-        <v>1020</v>
-      </c>
-      <c r="Q385">
-        <v>1015</v>
-      </c>
-      <c r="R385">
-        <v>26</v>
-      </c>
-      <c r="S385">
-        <v>11</v>
-      </c>
-      <c r="T385">
-        <v>10</v>
-      </c>
-      <c r="U385">
-        <v>34</v>
-      </c>
-      <c r="V385">
-        <v>11</v>
-      </c>
-      <c r="X385">
-        <v>0</v>
-      </c>
-      <c r="Y385">
-        <v>2</v>
-      </c>
-      <c r="AA385">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>20</v>
-      </c>
-      <c r="G386">
-        <v>12</v>
-      </c>
-      <c r="H386">
-        <v>5</v>
-      </c>
-      <c r="I386">
-        <v>4</v>
-      </c>
-      <c r="J386">
-        <v>2</v>
-      </c>
-      <c r="K386">
-        <v>-5</v>
-      </c>
-      <c r="L386">
-        <v>81</v>
-      </c>
-      <c r="M386">
-        <v>50</v>
-      </c>
-      <c r="N386">
-        <v>11</v>
-      </c>
-      <c r="O386">
-        <v>1020</v>
-      </c>
-      <c r="P386">
-        <v>1018</v>
-      </c>
-      <c r="Q386">
-        <v>1013</v>
-      </c>
-      <c r="R386">
-        <v>19</v>
-      </c>
-      <c r="S386">
-        <v>11</v>
-      </c>
-      <c r="T386">
-        <v>10</v>
-      </c>
-      <c r="U386">
-        <v>84</v>
-      </c>
-      <c r="V386">
-        <v>10</v>
-      </c>
-      <c r="X386">
-        <v>0</v>
-      </c>
-      <c r="Y386">
-        <v>5</v>
-      </c>
-      <c r="AA386">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>19</v>
-      </c>
-      <c r="G387">
-        <v>13</v>
-      </c>
-      <c r="H387">
-        <v>7</v>
-      </c>
-      <c r="I387">
-        <v>10</v>
-      </c>
-      <c r="J387">
-        <v>4</v>
-      </c>
-      <c r="K387">
-        <v>0</v>
-      </c>
-      <c r="L387">
-        <v>93</v>
-      </c>
-      <c r="M387">
-        <v>54</v>
-      </c>
-      <c r="N387">
-        <v>22</v>
-      </c>
-      <c r="O387">
-        <v>1018</v>
-      </c>
-      <c r="P387">
-        <v>1016</v>
-      </c>
-      <c r="Q387">
-        <v>1012</v>
-      </c>
-      <c r="R387">
-        <v>14</v>
-      </c>
-      <c r="S387">
-        <v>10</v>
-      </c>
-      <c r="T387">
-        <v>7</v>
-      </c>
-      <c r="U387">
-        <v>29</v>
-      </c>
-      <c r="V387">
-        <v>11</v>
-      </c>
-      <c r="X387">
-        <v>0.51</v>
-      </c>
-      <c r="Y387">
-        <v>5</v>
-      </c>
-      <c r="Z387" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA387">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>16</v>
-      </c>
-      <c r="G388">
-        <v>12</v>
-      </c>
-      <c r="H388">
-        <v>8</v>
-      </c>
-      <c r="I388">
-        <v>11</v>
-      </c>
-      <c r="J388">
-        <v>8</v>
-      </c>
-      <c r="K388">
-        <v>6</v>
-      </c>
-      <c r="L388">
-        <v>94</v>
-      </c>
-      <c r="M388">
-        <v>80</v>
-      </c>
-      <c r="N388">
-        <v>49</v>
-      </c>
-      <c r="O388">
-        <v>1018</v>
-      </c>
-      <c r="P388">
-        <v>1016</v>
-      </c>
-      <c r="Q388">
-        <v>1011</v>
-      </c>
-      <c r="R388">
-        <v>10</v>
-      </c>
-      <c r="S388">
-        <v>8</v>
-      </c>
-      <c r="T388">
-        <v>3</v>
-      </c>
-      <c r="U388">
-        <v>23</v>
-      </c>
-      <c r="V388">
-        <v>8</v>
-      </c>
-      <c r="X388">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="Y388">
-        <v>6</v>
-      </c>
-      <c r="Z388" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA388">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -30628,7 +29168,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30640,7 +29180,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
